--- a/output/control_energy_qc_summary.xlsx
+++ b/output/control_energy_qc_summary.xlsx
@@ -470,13 +470,13 @@
         <v>850</v>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="E2" t="n">
         <v>833</v>

--- a/output/control_energy_qc_summary.xlsx
+++ b/output/control_energy_qc_summary.xlsx
@@ -470,10 +470,10 @@
         <v>850</v>
       </c>
       <c r="B2" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>809</v>
